--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
   <si>
     <t>Path</t>
   </si>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>BeModelMedicationRecord.dispense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordDispense
+</t>
   </si>
   <si>
     <t>BeModelMedicationRecord.treatmentLine</t>
@@ -785,7 +789,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -858,7 +862,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -934,7 +938,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$12</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="65">
   <si>
     <t>Path</t>
   </si>
@@ -140,7 +140,7 @@
     <t>Medication Record logical model</t>
   </si>
   <si>
-    <t>A collection of a patient's medication history.</t>
+    <t>A structure collection of a patient's medication history.</t>
   </si>
   <si>
     <t>Base</t>
@@ -150,23 +150,76 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The subject of the medication record</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatment
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.treatmentLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatmentLine
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.summaryView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordSummaryView
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.detailedRecords</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>BeModelMedicationRecord.prescription</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecord.dispense</t>
+    <t>BeModelMedicationRecord.detailedRecords.orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordOrder
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.detailedRecords.dispenses</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordDispense
 </t>
   </si>
   <si>
-    <t>BeModelMedicationRecord.treatmentLine</t>
+    <t>BeModelMedicationRecord.detailedRecords.administrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordAdministration
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.detailedRecords.usageReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordUsage
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.changeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provenance
+</t>
   </si>
 </sst>
 </file>
@@ -315,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -324,7 +377,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -334,7 +387,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="34.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -354,7 +407,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="55.69140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -599,8 +652,12 @@
       <c r="J3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -670,7 +727,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -693,7 +750,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -746,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -766,7 +823,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -789,7 +846,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -842,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -862,7 +919,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -885,7 +942,7 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -938,7 +995,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -953,11 +1010,587 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ6">
+  <autoFilter ref="A1:AJ12">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -967,7 +1600,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
   <si>
     <t>Path</t>
   </si>
@@ -166,6 +166,9 @@
 </t>
   </si>
   <si>
+    <t>The treaments that are included in this record</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.treatmentLines</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
 </t>
   </si>
   <si>
+    <t>The treatment lines that are included in this record</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.summaryView</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
 </t>
   </si>
   <si>
+    <t>The summary views that are produced from this record or entered into it</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords</t>
   </si>
   <si>
@@ -187,6 +196,9 @@
 </t>
   </si>
   <si>
+    <t>Detailed records</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
@@ -194,6 +206,19 @@
 </t>
   </si>
   <si>
+    <t>Explicit or implicit order for medication use or changes</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecord.detailedRecords.schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledOrder
+</t>
+  </si>
+  <si>
+    <t>Scheduled administrations of the medication</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.dispenses</t>
   </si>
   <si>
@@ -201,6 +226,9 @@
 </t>
   </si>
   <si>
+    <t>Registered or reported dispenses</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.administrations</t>
   </si>
   <si>
@@ -208,6 +236,9 @@
 </t>
   </si>
   <si>
+    <t>Registered or reported single administrations</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.usageReports</t>
   </si>
   <si>
@@ -215,11 +246,17 @@
 </t>
   </si>
   <si>
+    <t>Reported statements of medication usage</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.changeRecord</t>
   </si>
   <si>
     <t xml:space="preserve">Provenance
 </t>
+  </si>
+  <si>
+    <t>Change records and provenance for the medication record components</t>
   </si>
 </sst>
 </file>
@@ -368,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -387,7 +424,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="34.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -752,8 +789,12 @@
       <c r="J4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -823,7 +864,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -846,10 +887,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -899,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -919,7 +964,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -942,10 +987,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -995,7 +1044,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1015,7 +1064,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1038,10 +1087,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1091,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1111,7 +1164,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1134,10 +1187,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1187,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1207,7 +1264,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1230,10 +1287,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1283,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1303,7 +1364,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1326,10 +1387,14 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1379,7 +1444,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1399,7 +1464,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1422,10 +1487,14 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1475,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1495,7 +1564,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1518,10 +1587,14 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1571,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1586,11 +1659,111 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ12">
+  <autoFilter ref="A1:AJ13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1600,7 +1773,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI11">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
   <si>
     <t>Path</t>
   </si>
@@ -146,10 +146,20 @@
     <t>Base</t>
   </si>
   <si>
+    <t>BeModelMedicationRecord.identifier</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>The business identifier(s) for the Medication Record</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.patient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -212,7 +222,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledOrder
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledAdministration
 </t>
   </si>
   <si>
@@ -405,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -672,7 +682,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>44</v>
@@ -747,7 +757,7 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>44</v>
@@ -772,10 +782,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -847,10 +857,10 @@
         <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -1762,8 +1772,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ13">
+  <autoFilter ref="A1:AJ14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1773,7 +1883,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Detailed records</t>
+  </si>
+  <si>
+    <t>Detailed records - the most granular interactions</t>
   </si>
   <si>
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
@@ -1203,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1297,13 +1300,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1354,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1397,13 +1400,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1454,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1497,13 +1500,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1554,7 +1557,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1597,13 +1600,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1654,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1697,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1754,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1797,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1854,7 +1857,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record logical model</t>
+    <t>[Logical Model] - Medication Record</t>
   </si>
   <si>
     <t>A structure collection of a patient's medication history.</t>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Medication Record</t>
   </si>
   <si>
-    <t>A structure collection of a patient's medication history.</t>
+    <t>A model for a structure collection of a patient's medication history.</t>
   </si>
   <si>
     <t>Base</t>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
   <si>
     <t>Path</t>
   </si>
@@ -137,29 +137,19 @@
     <t>*</t>
   </si>
   <si>
-    <t>[Logical Model] - Medication Record</t>
-  </si>
-  <si>
-    <t>A model for a structure collection of a patient's medication history.</t>
+    <t>Medication Record logical model</t>
+  </si>
+  <si>
+    <t>A structure collection of a patient's medication history.</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t>BeModelMedicationRecord.identifier</t>
+    <t>BeModelMedicationRecord.patient</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>The business identifier(s) for the Medication Record</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecord.patient</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -172,7 +162,7 @@
     <t>BeModelMedicationRecord.treatments</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatment
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatment
 </t>
   </si>
   <si>
@@ -182,7 +172,7 @@
     <t>BeModelMedicationRecord.treatmentLines</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatmentLine
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatmentLine
 </t>
   </si>
   <si>
@@ -192,7 +182,7 @@
     <t>BeModelMedicationRecord.summaryView</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordSummaryView
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordSummaryView
 </t>
   </si>
   <si>
@@ -209,13 +199,10 @@
     <t>Detailed records</t>
   </si>
   <si>
-    <t>Detailed records - the most granular interactions</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordOrder
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordOrder
 </t>
   </si>
   <si>
@@ -225,7 +212,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledAdministration
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledOrder
 </t>
   </si>
   <si>
@@ -235,7 +222,7 @@
     <t>BeModelMedicationRecord.detailedRecords.dispenses</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordDispense
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordDispense
 </t>
   </si>
   <si>
@@ -245,7 +232,7 @@
     <t>BeModelMedicationRecord.detailedRecords.administrations</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordAdministration
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordAdministration
 </t>
   </si>
   <si>
@@ -255,7 +242,7 @@
     <t>BeModelMedicationRecord.detailedRecords.usageReports</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordUsage
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordUsage
 </t>
   </si>
   <si>
@@ -418,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -685,7 +672,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>44</v>
@@ -760,7 +747,7 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>44</v>
@@ -785,10 +772,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -860,10 +847,10 @@
         <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -1206,7 +1193,7 @@
         <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1277,7 +1264,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1300,13 +1287,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1357,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1377,7 +1364,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1400,13 +1387,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1457,7 +1444,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1477,7 +1464,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1500,13 +1487,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1557,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1577,7 +1564,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1600,13 +1587,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1657,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1677,7 +1664,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1700,13 +1687,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1757,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1772,111 +1759,11 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ14">
+  <autoFilter ref="A1:AJ13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1886,7 +1773,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
   <si>
     <t>Path</t>
   </si>
@@ -137,19 +137,29 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record logical model</t>
-  </si>
-  <si>
-    <t>A structure collection of a patient's medication history.</t>
+    <t>[Logical Model] - Medication Record</t>
+  </si>
+  <si>
+    <t>A model for a structure collection of a patient's medication history.</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
+    <t>BeModelMedicationRecord.identifier</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>The business identifier(s) for the Medication Record</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.patient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -199,6 +209,9 @@
     <t>Detailed records</t>
   </si>
   <si>
+    <t>Detailed records - the most granular interactions</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
@@ -212,7 +225,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledOrder
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledAdministration
 </t>
   </si>
   <si>
@@ -405,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -672,7 +685,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>44</v>
@@ -747,7 +760,7 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>44</v>
@@ -772,10 +785,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -847,10 +860,10 @@
         <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -1193,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1264,7 +1277,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1287,13 +1300,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1344,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1364,7 +1377,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1387,13 +1400,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1444,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1464,7 +1477,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1487,13 +1500,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1544,7 +1557,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1564,7 +1577,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1587,13 +1600,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1644,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1664,7 +1677,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1687,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1744,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1759,11 +1772,111 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ13">
+  <autoFilter ref="A1:AJ14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1773,7 +1886,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -172,7 +172,7 @@
     <t>BeModelMedicationRecord.treatments</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatment
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatment
 </t>
   </si>
   <si>
@@ -182,7 +182,7 @@
     <t>BeModelMedicationRecord.treatmentLines</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatmentLine
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatmentLine
 </t>
   </si>
   <si>
@@ -192,7 +192,7 @@
     <t>BeModelMedicationRecord.summaryView</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordSummaryView
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordSummaryView
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordOrder
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordOrder
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledAdministration
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledAdministration
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>BeModelMedicationRecord.detailedRecords.dispenses</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordDispense
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordDispense
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>BeModelMedicationRecord.detailedRecords.administrations</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordAdministration
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordAdministration
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
     <t>BeModelMedicationRecord.detailedRecords.usageReports</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordUsage
+    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordUsage
 </t>
   </si>
   <si>

--- a/StructureDefinition-BeModelMedicationRecord.xlsx
+++ b/StructureDefinition-BeModelMedicationRecord.xlsx
@@ -172,7 +172,7 @@
     <t>BeModelMedicationRecord.treatments</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatment
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatment
 </t>
   </si>
   <si>
@@ -182,7 +182,7 @@
     <t>BeModelMedicationRecord.treatmentLines</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordTreatmentLine
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordTreatmentLine
 </t>
   </si>
   <si>
@@ -192,7 +192,7 @@
     <t>BeModelMedicationRecord.summaryView</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordSummaryView
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordSummaryView
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>BeModelMedicationRecord.detailedRecords.orders</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordOrder
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordOrder
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>BeModelMedicationRecord.detailedRecords.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationScheduledAdministration
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationScheduledAdministration
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>BeModelMedicationRecord.detailedRecords.dispenses</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordDispense
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordDispense
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>BeModelMedicationRecord.detailedRecords.administrations</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordAdministration
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordAdministration
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
     <t>BeModelMedicationRecord.detailedRecords.usageReports</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hl7belgium.be/fhir/StructureDefinition/BeModelMedicationRecordUsage
+    <t xml:space="preserve">http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeModelMedicationRecordUsage
 </t>
   </si>
   <si>
